--- a/contratos/contratos-7-2017.xlsx
+++ b/contratos/contratos-7-2017.xlsx
@@ -868,7 +868,7 @@
     <t>VALENZUELA NESTOR GABRIEL</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>CONSORCIO EDIFICIO DEL SISTEMA DE PREVISION SOCIAL PARA MEDICOS Y BIOQUIMICOS DE E. RIOS.</t>
@@ -1015,7 +1015,7 @@
     <t>ZALAZAR DIONISIO RUBEN DARIO</t>
   </si>
   <si>
-    <t>DODERA, JORGE ABELARDO</t>
+    <t>DODERA. JORGE ABELARDO</t>
   </si>
   <si>
     <t>FERREYRA EDUARDO FEDERICO</t>
@@ -1045,7 +1045,7 @@
     <t>REYMUNDO EDUARDO JORGE</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOMBA HERMANOS S.R.L.</t>
@@ -1156,7 +1156,7 @@
     <t>GANGALE FRANCISCO ARMANDO</t>
   </si>
   <si>
-    <t>LUGRIN, RICARDO JOSE</t>
+    <t>LUGRIN. RICARDO JOSE</t>
   </si>
   <si>
     <t>ANTIGUA POSTA DEL TORREON</t>
@@ -1519,535 +1519,535 @@
     <t>66</t>
   </si>
   <si>
-    <t>2.520,00</t>
-  </si>
-  <si>
-    <t>930,00</t>
-  </si>
-  <si>
-    <t>9.445,00</t>
-  </si>
-  <si>
-    <t>35.900,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>1.385.000,00</t>
-  </si>
-  <si>
-    <t>429.500,00</t>
-  </si>
-  <si>
-    <t>950.000,00</t>
-  </si>
-  <si>
-    <t>128.000,00</t>
-  </si>
-  <si>
-    <t>469.000,00</t>
-  </si>
-  <si>
-    <t>388.727,60</t>
-  </si>
-  <si>
-    <t>27.225,00</t>
-  </si>
-  <si>
-    <t>698.000,00</t>
-  </si>
-  <si>
-    <t>5.750,02</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>859.678,20</t>
-  </si>
-  <si>
-    <t>516.197,88</t>
-  </si>
-  <si>
-    <t>27.956,00</t>
-  </si>
-  <si>
-    <t>87.436,40</t>
-  </si>
-  <si>
-    <t>73.757,50</t>
-  </si>
-  <si>
-    <t>59.639,84</t>
-  </si>
-  <si>
-    <t>399,00</t>
-  </si>
-  <si>
-    <t>33.355,12</t>
-  </si>
-  <si>
-    <t>19.050,00</t>
-  </si>
-  <si>
-    <t>4.510,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>505,31</t>
-  </si>
-  <si>
-    <t>43.400,00</t>
-  </si>
-  <si>
-    <t>9.680,00</t>
-  </si>
-  <si>
-    <t>22.442,10</t>
-  </si>
-  <si>
-    <t>1.840,00</t>
-  </si>
-  <si>
-    <t>24.610,00</t>
-  </si>
-  <si>
-    <t>355.810,00</t>
-  </si>
-  <si>
-    <t>1.077,00</t>
-  </si>
-  <si>
-    <t>1.760,00</t>
-  </si>
-  <si>
-    <t>6.458,89</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>388,56</t>
-  </si>
-  <si>
-    <t>4.738,00</t>
-  </si>
-  <si>
-    <t>10.197,75</t>
-  </si>
-  <si>
-    <t>1.299,00</t>
-  </si>
-  <si>
-    <t>153.915,54</t>
-  </si>
-  <si>
-    <t>21.888,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>2.683,00</t>
-  </si>
-  <si>
-    <t>8.734,28</t>
-  </si>
-  <si>
-    <t>11.230,77</t>
-  </si>
-  <si>
-    <t>1.065,00</t>
-  </si>
-  <si>
-    <t>16.203,43</t>
-  </si>
-  <si>
-    <t>6.101,80</t>
-  </si>
-  <si>
-    <t>7.631,10</t>
-  </si>
-  <si>
-    <t>38.102,55</t>
-  </si>
-  <si>
-    <t>3.060,00</t>
-  </si>
-  <si>
-    <t>20.052,18</t>
-  </si>
-  <si>
-    <t>330,00</t>
-  </si>
-  <si>
-    <t>1.321,84</t>
-  </si>
-  <si>
-    <t>471,88</t>
-  </si>
-  <si>
-    <t>4.810,00</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>3.270,00</t>
-  </si>
-  <si>
-    <t>90.256,00</t>
-  </si>
-  <si>
-    <t>11.500,00</t>
-  </si>
-  <si>
-    <t>4.260,00</t>
-  </si>
-  <si>
-    <t>5.620,00</t>
-  </si>
-  <si>
-    <t>596,16</t>
-  </si>
-  <si>
-    <t>433,16</t>
-  </si>
-  <si>
-    <t>35.500,00</t>
-  </si>
-  <si>
-    <t>2.350,00</t>
-  </si>
-  <si>
-    <t>980,00</t>
-  </si>
-  <si>
-    <t>3.036,15</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>169.576,00</t>
-  </si>
-  <si>
-    <t>656,00</t>
-  </si>
-  <si>
-    <t>117.227,00</t>
-  </si>
-  <si>
-    <t>24.015,00</t>
-  </si>
-  <si>
-    <t>66.132,00</t>
-  </si>
-  <si>
-    <t>8.100,00</t>
-  </si>
-  <si>
-    <t>62.190,00</t>
-  </si>
-  <si>
-    <t>482,00</t>
-  </si>
-  <si>
-    <t>12,00</t>
-  </si>
-  <si>
-    <t>10.065,00</t>
-  </si>
-  <si>
-    <t>558.358,95</t>
-  </si>
-  <si>
-    <t>16.851,11</t>
-  </si>
-  <si>
-    <t>8,00</t>
-  </si>
-  <si>
-    <t>220,70</t>
-  </si>
-  <si>
-    <t>78,18</t>
-  </si>
-  <si>
-    <t>31.488,69</t>
-  </si>
-  <si>
-    <t>203,00</t>
-  </si>
-  <si>
-    <t>280,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>5.213,00</t>
-  </si>
-  <si>
-    <t>30.742,12</t>
-  </si>
-  <si>
-    <t>5.240,00</t>
-  </si>
-  <si>
-    <t>919,30</t>
-  </si>
-  <si>
-    <t>53,80</t>
-  </si>
-  <si>
-    <t>3.013,80</t>
-  </si>
-  <si>
-    <t>794,00</t>
-  </si>
-  <si>
-    <t>24.583,00</t>
-  </si>
-  <si>
-    <t>12.265,00</t>
-  </si>
-  <si>
-    <t>8.910,00</t>
-  </si>
-  <si>
-    <t>94.350,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>162.500,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>6.134,33</t>
-  </si>
-  <si>
-    <t>1.761,10</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>435,00</t>
-  </si>
-  <si>
-    <t>15.205,00</t>
-  </si>
-  <si>
-    <t>20.560,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>25.116,58</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>4.999,12</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>46.907,25</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>24.300,00</t>
-  </si>
-  <si>
-    <t>27.776,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>11.850,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>665,50</t>
-  </si>
-  <si>
-    <t>354,90</t>
-  </si>
-  <si>
-    <t>5.269,00</t>
-  </si>
-  <si>
-    <t>36.354,00</t>
-  </si>
-  <si>
-    <t>13.160,00</t>
-  </si>
-  <si>
-    <t>351,46</t>
-  </si>
-  <si>
-    <t>286,60</t>
-  </si>
-  <si>
-    <t>10.043,00</t>
-  </si>
-  <si>
-    <t>17.500,00</t>
-  </si>
-  <si>
-    <t>30.278,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>16.453,99</t>
-  </si>
-  <si>
-    <t>8.927,00</t>
-  </si>
-  <si>
-    <t>9.949,26</t>
-  </si>
-  <si>
-    <t>12.630,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>1.157,28</t>
-  </si>
-  <si>
-    <t>5.680,43</t>
-  </si>
-  <si>
-    <t>264,00</t>
-  </si>
-  <si>
-    <t>178.415,00</t>
-  </si>
-  <si>
-    <t>70.910,00</t>
-  </si>
-  <si>
-    <t>21.156,20</t>
-  </si>
-  <si>
-    <t>19.796,56</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>3.228.646,85</t>
-  </si>
-  <si>
-    <t>28.200,00</t>
-  </si>
-  <si>
-    <t>116.000,00</t>
-  </si>
-  <si>
-    <t>1.380,00</t>
-  </si>
-  <si>
-    <t>137.000,00</t>
-  </si>
-  <si>
-    <t>224.000,00</t>
-  </si>
-  <si>
-    <t>320.000,00</t>
-  </si>
-  <si>
-    <t>211.000,00</t>
-  </si>
-  <si>
-    <t>132.750,00</t>
-  </si>
-  <si>
-    <t>344.244,32</t>
-  </si>
-  <si>
-    <t>18.500,00</t>
-  </si>
-  <si>
-    <t>9.483,24</t>
-  </si>
-  <si>
-    <t>27.468,00</t>
-  </si>
-  <si>
-    <t>17.300,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>2.607,06</t>
-  </si>
-  <si>
-    <t>23.205,00</t>
-  </si>
-  <si>
-    <t>425.000,00</t>
-  </si>
-  <si>
-    <t>18.453,50</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>47.730,00</t>
-  </si>
-  <si>
-    <t>10.800,00</t>
+    <t>2520.00</t>
+  </si>
+  <si>
+    <t>930.00</t>
+  </si>
+  <si>
+    <t>9445.00</t>
+  </si>
+  <si>
+    <t>35900.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>1385000.00</t>
+  </si>
+  <si>
+    <t>429500.00</t>
+  </si>
+  <si>
+    <t>950000.00</t>
+  </si>
+  <si>
+    <t>128000.00</t>
+  </si>
+  <si>
+    <t>469000.00</t>
+  </si>
+  <si>
+    <t>388727.60</t>
+  </si>
+  <si>
+    <t>27225.00</t>
+  </si>
+  <si>
+    <t>698000.00</t>
+  </si>
+  <si>
+    <t>5750.02</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>859678.20</t>
+  </si>
+  <si>
+    <t>516197.88</t>
+  </si>
+  <si>
+    <t>27956.00</t>
+  </si>
+  <si>
+    <t>87436.40</t>
+  </si>
+  <si>
+    <t>73757.50</t>
+  </si>
+  <si>
+    <t>59639.84</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>33355.12</t>
+  </si>
+  <si>
+    <t>19050.00</t>
+  </si>
+  <si>
+    <t>4510.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>505.31</t>
+  </si>
+  <si>
+    <t>43400.00</t>
+  </si>
+  <si>
+    <t>9680.00</t>
+  </si>
+  <si>
+    <t>22442.10</t>
+  </si>
+  <si>
+    <t>1840.00</t>
+  </si>
+  <si>
+    <t>24610.00</t>
+  </si>
+  <si>
+    <t>355810.00</t>
+  </si>
+  <si>
+    <t>1077.00</t>
+  </si>
+  <si>
+    <t>1760.00</t>
+  </si>
+  <si>
+    <t>6458.89</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>388.56</t>
+  </si>
+  <si>
+    <t>4738.00</t>
+  </si>
+  <si>
+    <t>10197.75</t>
+  </si>
+  <si>
+    <t>1299.00</t>
+  </si>
+  <si>
+    <t>153915.54</t>
+  </si>
+  <si>
+    <t>21888.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>2683.00</t>
+  </si>
+  <si>
+    <t>8734.28</t>
+  </si>
+  <si>
+    <t>11230.77</t>
+  </si>
+  <si>
+    <t>1065.00</t>
+  </si>
+  <si>
+    <t>16203.43</t>
+  </si>
+  <si>
+    <t>6101.80</t>
+  </si>
+  <si>
+    <t>7631.10</t>
+  </si>
+  <si>
+    <t>38102.55</t>
+  </si>
+  <si>
+    <t>3060.00</t>
+  </si>
+  <si>
+    <t>20052.18</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>1321.84</t>
+  </si>
+  <si>
+    <t>471.88</t>
+  </si>
+  <si>
+    <t>4810.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>3270.00</t>
+  </si>
+  <si>
+    <t>90256.00</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>4260.00</t>
+  </si>
+  <si>
+    <t>5620.00</t>
+  </si>
+  <si>
+    <t>596.16</t>
+  </si>
+  <si>
+    <t>433.16</t>
+  </si>
+  <si>
+    <t>35500.00</t>
+  </si>
+  <si>
+    <t>2350.00</t>
+  </si>
+  <si>
+    <t>980.00</t>
+  </si>
+  <si>
+    <t>3036.15</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>169576.00</t>
+  </si>
+  <si>
+    <t>656.00</t>
+  </si>
+  <si>
+    <t>117227.00</t>
+  </si>
+  <si>
+    <t>24015.00</t>
+  </si>
+  <si>
+    <t>66132.00</t>
+  </si>
+  <si>
+    <t>8100.00</t>
+  </si>
+  <si>
+    <t>62190.00</t>
+  </si>
+  <si>
+    <t>482.00</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>10065.00</t>
+  </si>
+  <si>
+    <t>558358.95</t>
+  </si>
+  <si>
+    <t>16851.11</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>220.70</t>
+  </si>
+  <si>
+    <t>78.18</t>
+  </si>
+  <si>
+    <t>31488.69</t>
+  </si>
+  <si>
+    <t>203.00</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>5213.00</t>
+  </si>
+  <si>
+    <t>30742.12</t>
+  </si>
+  <si>
+    <t>5240.00</t>
+  </si>
+  <si>
+    <t>919.30</t>
+  </si>
+  <si>
+    <t>53.80</t>
+  </si>
+  <si>
+    <t>3013.80</t>
+  </si>
+  <si>
+    <t>794.00</t>
+  </si>
+  <si>
+    <t>24583.00</t>
+  </si>
+  <si>
+    <t>12265.00</t>
+  </si>
+  <si>
+    <t>8910.00</t>
+  </si>
+  <si>
+    <t>94350.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>162500.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>6134.33</t>
+  </si>
+  <si>
+    <t>1761.10</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>435.00</t>
+  </si>
+  <si>
+    <t>15205.00</t>
+  </si>
+  <si>
+    <t>20560.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>25116.58</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>4999.12</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>46907.25</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>24300.00</t>
+  </si>
+  <si>
+    <t>27776.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>11850.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>665.50</t>
+  </si>
+  <si>
+    <t>354.90</t>
+  </si>
+  <si>
+    <t>5269.00</t>
+  </si>
+  <si>
+    <t>36354.00</t>
+  </si>
+  <si>
+    <t>13160.00</t>
+  </si>
+  <si>
+    <t>351.46</t>
+  </si>
+  <si>
+    <t>286.60</t>
+  </si>
+  <si>
+    <t>10043.00</t>
+  </si>
+  <si>
+    <t>17500.00</t>
+  </si>
+  <si>
+    <t>30278.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>16453.99</t>
+  </si>
+  <si>
+    <t>8927.00</t>
+  </si>
+  <si>
+    <t>9949.26</t>
+  </si>
+  <si>
+    <t>12630.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>1157.28</t>
+  </si>
+  <si>
+    <t>5680.43</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>178415.00</t>
+  </si>
+  <si>
+    <t>70910.00</t>
+  </si>
+  <si>
+    <t>21156.20</t>
+  </si>
+  <si>
+    <t>19796.56</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>3228646.85</t>
+  </si>
+  <si>
+    <t>28200.00</t>
+  </si>
+  <si>
+    <t>116000.00</t>
+  </si>
+  <si>
+    <t>1380.00</t>
+  </si>
+  <si>
+    <t>137000.00</t>
+  </si>
+  <si>
+    <t>224000.00</t>
+  </si>
+  <si>
+    <t>320000.00</t>
+  </si>
+  <si>
+    <t>211000.00</t>
+  </si>
+  <si>
+    <t>132750.00</t>
+  </si>
+  <si>
+    <t>344244.32</t>
+  </si>
+  <si>
+    <t>18500.00</t>
+  </si>
+  <si>
+    <t>9483.24</t>
+  </si>
+  <si>
+    <t>27468.00</t>
+  </si>
+  <si>
+    <t>17300.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>2607.06</t>
+  </si>
+  <si>
+    <t>23205.00</t>
+  </si>
+  <si>
+    <t>425000.00</t>
+  </si>
+  <si>
+    <t>18453.50</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>47730.00</t>
+  </si>
+  <si>
+    <t>10800.00</t>
   </si>
 </sst>
 </file>
